--- a/US/data/CBS/NFIB/old/Regular Borrowers.xlsx
+++ b/US/data/CBS/NFIB/old/Regular Borrowers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E92898E-B8C6-44F4-B60B-F45E125B0472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="455">
   <si>
     <t>Month/Year</t>
   </si>
@@ -30,66 +31,69 @@
     <t>1986/1/1</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1986/2/1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>1986/2/1</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
     <t>1986/12/1</t>
   </si>
   <si>
     <t>1987/1/1</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>1987/2/1</t>
   </si>
   <si>
@@ -141,9 +145,6 @@
     <t>1988/4/1</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>1988/5/1</t>
   </si>
   <si>
@@ -1381,12 +1382,15 @@
   </si>
   <si>
     <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1535,6 +1539,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1570,6 +1591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1745,8 +1783,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1811,12 +1849,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1824,15 +1862,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1840,18 +1878,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +1897,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,44 +1905,44 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1912,7 +1950,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1920,23 +1958,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1944,15 +1982,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1960,7 +1998,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1968,26 +2006,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +2033,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2057,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2089,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2153,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2161,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2169,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2185,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2193,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2201,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2209,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2217,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2233,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,7 +2241,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2257,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2227,7 +2265,7 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,7 +2281,7 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2289,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2321,7 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,7 +2337,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2345,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2361,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2369,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2387,7 +2425,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,7 +2433,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,7 +2449,7 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,7 +2457,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2427,7 +2465,7 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2443,7 +2481,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2505,7 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,7 +2513,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2483,7 +2521,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2507,7 +2545,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,7 +2553,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2523,7 +2561,7 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2539,7 +2577,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2555,7 +2593,7 @@
         <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,7 +2617,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2595,7 +2633,7 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,7 +2665,7 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2651,7 +2689,7 @@
         <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2697,7 @@
         <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2667,7 +2705,7 @@
         <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2699,7 +2737,7 @@
         <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2707,7 +2745,7 @@
         <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2769,7 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2747,7 +2785,7 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2755,7 +2793,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2763,7 +2801,7 @@
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2771,7 +2809,7 @@
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,7 +2817,7 @@
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2787,7 +2825,7 @@
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +2841,7 @@
         <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +2849,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2857,7 @@
         <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,7 +2865,7 @@
         <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +2873,7 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,7 +2921,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2937,7 @@
         <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2945,7 @@
         <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +2953,7 @@
         <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +2961,7 @@
         <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +2977,7 @@
         <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2987,7 +3025,7 @@
         <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +3033,7 @@
         <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,7 +3041,7 @@
         <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,7 +3049,7 @@
         <v>171</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3035,7 +3073,7 @@
         <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3129,7 @@
         <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,7 +3153,7 @@
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3169,7 @@
         <v>187</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3177,7 @@
         <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3193,7 @@
         <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3209,7 @@
         <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3217,7 @@
         <v>193</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3225,7 @@
         <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3257,7 @@
         <v>198</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,7 +3265,7 @@
         <v>199</v>
       </c>
       <c r="B184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3273,7 @@
         <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3289,7 @@
         <v>202</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3297,7 @@
         <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +3313,7 @@
         <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,7 +3337,7 @@
         <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3345,7 @@
         <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3361,7 @@
         <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3369,7 @@
         <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3347,7 +3385,7 @@
         <v>214</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +3417,7 @@
         <v>219</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3387,7 +3425,7 @@
         <v>220</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3395,7 +3433,7 @@
         <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3403,7 +3441,7 @@
         <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,7 +3457,7 @@
         <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3427,7 +3465,7 @@
         <v>225</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,7 +3489,7 @@
         <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,7 +3497,7 @@
         <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3475,7 +3513,7 @@
         <v>231</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3483,7 +3521,7 @@
         <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3499,7 +3537,7 @@
         <v>234</v>
       </c>
       <c r="B218" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +3545,7 @@
         <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +3561,7 @@
         <v>237</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,7 +3569,7 @@
         <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,7 +3577,7 @@
         <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +3609,7 @@
         <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3587,7 +3625,7 @@
         <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3595,7 +3633,7 @@
         <v>246</v>
       </c>
       <c r="B230" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3619,7 +3657,7 @@
         <v>249</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3643,7 +3681,7 @@
         <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +3697,7 @@
         <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,7 +3705,7 @@
         <v>255</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3675,7 +3713,7 @@
         <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3683,7 +3721,7 @@
         <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,7 +3729,7 @@
         <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,7 +3745,7 @@
         <v>260</v>
       </c>
       <c r="B244" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,7 +3761,7 @@
         <v>262</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3777,7 @@
         <v>264</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3763,7 +3801,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3779,7 +3817,7 @@
         <v>270</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3787,7 +3825,7 @@
         <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,7 +3833,7 @@
         <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,7 +3841,7 @@
         <v>273</v>
       </c>
       <c r="B256" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3849,7 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3819,7 +3857,7 @@
         <v>275</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,7 +3865,7 @@
         <v>276</v>
       </c>
       <c r="B259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3889,7 @@
         <v>279</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +3905,7 @@
         <v>281</v>
       </c>
       <c r="B264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,7 +3913,7 @@
         <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3883,7 +3921,7 @@
         <v>283</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,7 +3929,7 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3899,7 +3937,7 @@
         <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3907,7 +3945,7 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +3953,7 @@
         <v>287</v>
       </c>
       <c r="B270" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3923,7 +3961,7 @@
         <v>288</v>
       </c>
       <c r="B271" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3931,7 +3969,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +3977,7 @@
         <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3979,7 +4017,7 @@
         <v>295</v>
       </c>
       <c r="B278" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4011,7 +4049,7 @@
         <v>299</v>
       </c>
       <c r="B282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4027,7 +4065,7 @@
         <v>301</v>
       </c>
       <c r="B284" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4043,7 +4081,7 @@
         <v>303</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4075,7 +4113,7 @@
         <v>307</v>
       </c>
       <c r="B290" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4121,7 @@
         <v>308</v>
       </c>
       <c r="B291" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4091,7 +4129,7 @@
         <v>309</v>
       </c>
       <c r="B292" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4123,7 +4161,7 @@
         <v>313</v>
       </c>
       <c r="B296" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +4185,7 @@
         <v>316</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,7 +4209,7 @@
         <v>319</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4195,7 +4233,7 @@
         <v>323</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4265,7 @@
         <v>327</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4235,7 +4273,7 @@
         <v>328</v>
       </c>
       <c r="B310" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,7 +4289,7 @@
         <v>330</v>
       </c>
       <c r="B312" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4267,7 +4305,7 @@
         <v>332</v>
       </c>
       <c r="B314" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +4313,7 @@
         <v>333</v>
       </c>
       <c r="B315" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,7 +4401,7 @@
         <v>344</v>
       </c>
       <c r="B326" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4427,7 +4465,7 @@
         <v>352</v>
       </c>
       <c r="B334" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +4497,7 @@
         <v>356</v>
       </c>
       <c r="B338" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4523,7 +4561,7 @@
         <v>364</v>
       </c>
       <c r="B346" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4539,7 +4577,7 @@
         <v>366</v>
       </c>
       <c r="B348" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4555,7 +4593,7 @@
         <v>368</v>
       </c>
       <c r="B350" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +4609,7 @@
         <v>370</v>
       </c>
       <c r="B352" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4651,7 +4689,7 @@
         <v>380</v>
       </c>
       <c r="B362" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4785,7 @@
         <v>392</v>
       </c>
       <c r="B374" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4835,7 +4873,7 @@
         <v>404</v>
       </c>
       <c r="B385" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4843,7 +4881,7 @@
         <v>405</v>
       </c>
       <c r="B386" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4859,7 +4897,7 @@
         <v>407</v>
       </c>
       <c r="B388" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4929,7 @@
         <v>411</v>
       </c>
       <c r="B392" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4899,7 +4937,7 @@
         <v>412</v>
       </c>
       <c r="B393" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4915,7 +4953,7 @@
         <v>414</v>
       </c>
       <c r="B395" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,7 +4969,7 @@
         <v>416</v>
       </c>
       <c r="B397" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -4939,7 +4977,7 @@
         <v>417</v>
       </c>
       <c r="B398" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,7 +4985,7 @@
         <v>418</v>
       </c>
       <c r="B399" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4955,7 +4993,7 @@
         <v>419</v>
       </c>
       <c r="B400" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5073,7 @@
         <v>429</v>
       </c>
       <c r="B410" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5131,7 +5169,7 @@
         <v>444</v>
       </c>
       <c r="B422" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5198,9 +5236,18 @@
         <v>442</v>
       </c>
     </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>454</v>
+      </c>
+      <c r="B431" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>